--- a/2-Empirical-Evidence/raw_data/Rhode_Island.xlsx
+++ b/2-Empirical-Evidence/raw_data/Rhode_Island.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN440010000000003</t>
@@ -598,10 +614,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.6</v>
@@ -696,10 +724,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>1739.0</v>
@@ -794,10 +832,20 @@
       <c r="AF6" t="n" s="8">
         <v>1951.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>1249.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>687.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>675.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>24614.0</v>
@@ -892,10 +940,20 @@
       <c r="AF7" t="n" s="8">
         <v>24268.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>25330.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>25922.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>26055.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>26353.0</v>
@@ -990,10 +1048,20 @@
       <c r="AF8" t="n" s="8">
         <v>26219.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>26579.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>26609.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>26730.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.7</v>
@@ -1088,10 +1156,20 @@
       <c r="AF9" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>5080.0</v>
@@ -1186,10 +1264,20 @@
       <c r="AF10" t="n" s="8">
         <v>7993.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>4817.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>2690.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>2542.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>83300.0</v>
@@ -1284,10 +1372,20 @@
       <c r="AF11" t="n" s="8">
         <v>85412.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>89147.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>91231.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>91699.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>88380.0</v>
@@ -1382,10 +1480,20 @@
       <c r="AF12" t="n" s="8">
         <v>93405.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>93964.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>93921.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>94241.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.7</v>
@@ -1480,10 +1588,20 @@
       <c r="AF13" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>2504.0</v>
@@ -1578,10 +1696,20 @@
       <c r="AF14" t="n" s="8">
         <v>3577.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>2202.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>1258.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>1192.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>41052.0</v>
@@ -1676,10 +1804,20 @@
       <c r="AF15" t="n" s="8">
         <v>41180.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>42981.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>43986.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>44211.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>43556.0</v>
@@ -1774,10 +1912,20 @@
       <c r="AF16" t="n" s="8">
         <v>44757.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>45183.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>45244.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>45403.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>6.7</v>
@@ -1872,10 +2020,20 @@
       <c r="AF17" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>20570.0</v>
@@ -1970,10 +2128,20 @@
       <c r="AF18" t="n" s="8">
         <v>33624.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>19958.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>11602.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>11071.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>285626.0</v>
@@ -2068,10 +2236,20 @@
       <c r="AF19" t="n" s="8">
         <v>303203.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>316460.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>323859.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>325520.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>306196.0</v>
@@ -2166,10 +2344,20 @@
       <c r="AF20" t="n" s="8">
         <v>336827.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>336418.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>335461.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>336591.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>4.5</v>
@@ -2264,10 +2452,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>2671.0</v>
@@ -2362,10 +2560,20 @@
       <c r="AF22" t="n" s="8">
         <v>5311.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>3395.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1931.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>1759.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>56188.0</v>
@@ -2460,10 +2668,20 @@
       <c r="AF23" t="n" s="8">
         <v>64217.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>67009.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>68590.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>69124.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>58859.0</v>
@@ -2558,6 +2776,16 @@
       <c r="AF24" t="n" s="8">
         <v>69528.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>70404.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>70521.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>70883.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2568,7 +2796,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:27:12 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:02:31 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
